--- a/medicine/Médecine vétérinaire/FEFANA/FEFANA.xlsx
+++ b/medicine/Médecine vétérinaire/FEFANA/FEFANA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La FEFANA ou Association européenne des producteurs et livreurs d'ingrédients et leurs mélanges en nutrition animale est une association européenne qui représente les intérêts de l'industrie des additifs en nutrition animale.
 Elle a été créée le 13 octobre 2004 et correspond à la nouvelle forme juridique de l’Association des producteurs d’additifs en nutrition animale créée en 1963.
